--- a/NonStop/試験結果.xlsx
+++ b/NonStop/試験結果.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\NonStop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\JXIT\NonStop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>実施秒数</t>
   </si>
@@ -38,13 +38,22 @@
     <t>回数(Loop)</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Jmeter結果</t>
   </si>
   <si>
     <t>EMSログ</t>
+  </si>
+  <si>
+    <t>Max number of Connections in Jmeter</t>
+  </si>
+  <si>
+    <t>Pool timeout in Jmeter</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
@@ -368,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,9 +391,11 @@
     <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -398,13 +409,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -412,116 +429,22 @@
         <v>180</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>90</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>90</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>90</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>90</v>
-      </c>
-      <c r="D6" s="1">
-        <v>400</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>90</v>
-      </c>
-      <c r="D7" s="1">
-        <v>500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
